--- a/4min-Answers.xlsx
+++ b/4min-Answers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clairmutebi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidtran/ExperimentInCognitiveScience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A25E631E-396A-CB4B-B8E1-3581009FF473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A334ACBD-8A49-A64C-98B8-83923FE58E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="1740" windowWidth="14580" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12860" yWindow="1260" windowWidth="28440" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="125">
   <si>
     <t>User Name</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Estrogen</t>
   </si>
   <si>
-    <t>Guest</t>
-  </si>
-  <si>
     <t>11-7-2024 02:39:26 PM</t>
   </si>
   <si>
@@ -179,13 +176,232 @@
   </si>
   <si>
     <t>Answers</t>
+  </si>
+  <si>
+    <t>Guest1</t>
+  </si>
+  <si>
+    <t>Guest2</t>
+  </si>
+  <si>
+    <t>Guest3</t>
+  </si>
+  <si>
+    <t>Guest4</t>
+  </si>
+  <si>
+    <t>Guest5</t>
+  </si>
+  <si>
+    <t>Guest6</t>
+  </si>
+  <si>
+    <t>Guest7</t>
+  </si>
+  <si>
+    <t>Guest8</t>
+  </si>
+  <si>
+    <t>Guest9</t>
+  </si>
+  <si>
+    <t>Guest10</t>
+  </si>
+  <si>
+    <t>Rational functions have their input in the numerator of an expression.</t>
+  </si>
+  <si>
+    <t>0:5:8</t>
+  </si>
+  <si>
+    <t>0:5:18</t>
+  </si>
+  <si>
+    <t>0:0:37</t>
+  </si>
+  <si>
+    <t>0:5:24</t>
+  </si>
+  <si>
+    <t>0:5:47</t>
+  </si>
+  <si>
+    <t>0:7:15</t>
+  </si>
+  <si>
+    <t>0:4:20</t>
+  </si>
+  <si>
+    <t>0:4:38</t>
+  </si>
+  <si>
+    <t>0:7:6</t>
+  </si>
+  <si>
+    <t>0:10:36</t>
+  </si>
+  <si>
+    <t>Taken Time (2)</t>
+  </si>
+  <si>
+    <t>Time 1</t>
+  </si>
+  <si>
+    <t>Time 2</t>
+  </si>
+  <si>
+    <t>Time 3</t>
+  </si>
+  <si>
+    <t>Time 4</t>
+  </si>
+  <si>
+    <t>Time 5</t>
+  </si>
+  <si>
+    <t>00:00:50</t>
+  </si>
+  <si>
+    <t>00:01:43</t>
+  </si>
+  <si>
+    <t>00:01:32</t>
+  </si>
+  <si>
+    <t>00:00:53</t>
+  </si>
+  <si>
+    <t>00:00:54</t>
+  </si>
+  <si>
+    <t>00:02:52</t>
+  </si>
+  <si>
+    <t>00:01:35</t>
+  </si>
+  <si>
+    <t>00:02:18</t>
+  </si>
+  <si>
+    <t>00:03:39</t>
+  </si>
+  <si>
+    <t>00:02:34</t>
+  </si>
+  <si>
+    <t>00:02:00</t>
+  </si>
+  <si>
+    <t>00:00:49</t>
+  </si>
+  <si>
+    <t>00:01:30</t>
+  </si>
+  <si>
+    <t>00:02:33</t>
+  </si>
+  <si>
+    <t>00:01:56</t>
+  </si>
+  <si>
+    <t>00:00:40</t>
+  </si>
+  <si>
+    <t>00:01:54</t>
+  </si>
+  <si>
+    <t>00:02:20</t>
+  </si>
+  <si>
+    <t>00:03:00</t>
+  </si>
+  <si>
+    <t>00:00:23</t>
+  </si>
+  <si>
+    <t>00:00:41</t>
+  </si>
+  <si>
+    <t>00:00:03</t>
+  </si>
+  <si>
+    <t>00:01:13</t>
+  </si>
+  <si>
+    <t>00:00:42</t>
+  </si>
+  <si>
+    <t>00:00:48</t>
+  </si>
+  <si>
+    <t>00:01:40</t>
+  </si>
+  <si>
+    <t>00:01:39</t>
+  </si>
+  <si>
+    <t>00:03:51</t>
+  </si>
+  <si>
+    <t>00:01:37</t>
+  </si>
+  <si>
+    <t>00:01:55</t>
+  </si>
+  <si>
+    <t>00:00:11</t>
+  </si>
+  <si>
+    <t>00:01:49</t>
+  </si>
+  <si>
+    <t>00:02:19</t>
+  </si>
+  <si>
+    <t>00:03:15</t>
+  </si>
+  <si>
+    <t>00:01:09</t>
+  </si>
+  <si>
+    <t>00:02:36</t>
+  </si>
+  <si>
+    <t>00:02:23</t>
+  </si>
+  <si>
+    <t>00:04:00</t>
+  </si>
+  <si>
+    <t>00:02:54</t>
+  </si>
+  <si>
+    <t>00:02:28</t>
+  </si>
+  <si>
+    <t>00:02:10</t>
+  </si>
+  <si>
+    <t>00:01:19</t>
+  </si>
+  <si>
+    <t>00:01:05</t>
+  </si>
+  <si>
+    <t>00:02:44</t>
+  </si>
+  <si>
+    <t>00:02:29</t>
+  </si>
+  <si>
+    <t>Score(%) (2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -204,8 +420,26 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,8 +452,13 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -227,14 +466,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -550,14 +813,23 @@
     <col min="1" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" customWidth="1"/>
     <col min="7" max="7" width="21.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="18.83203125" customWidth="1"/>
-    <col min="13" max="13" width="32.33203125" customWidth="1"/>
-    <col min="14" max="14" width="31.6640625" customWidth="1"/>
-    <col min="17" max="17" width="12.83203125" customWidth="1"/>
-    <col min="22" max="22" width="21.1640625" customWidth="1"/>
+    <col min="12" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="32.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="31.6640625" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" customWidth="1"/>
+    <col min="21" max="21" width="12.83203125" customWidth="1"/>
+    <col min="22" max="22" width="84.5" customWidth="1"/>
+    <col min="23" max="23" width="21.83203125" customWidth="1"/>
+    <col min="24" max="24" width="18.33203125" customWidth="1"/>
+    <col min="25" max="25" width="8.1640625" customWidth="1"/>
+    <col min="28" max="28" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,63 +852,81 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>20</v>
       </c>
       <c r="B2">
         <v>14.285714199999999</v>
       </c>
       <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -645,63 +935,84 @@
         <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="O2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>20</v>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B3">
         <v>28.5714285</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -710,36 +1021,84 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" t="s">
         <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="O3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="3">
+        <v>66.666666599999999</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="X3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>20</v>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B4">
         <v>28.5714285</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -748,36 +1107,84 @@
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" t="s">
         <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" t="s">
         <v>12</v>
       </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>20</v>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B5">
         <v>28.5714285</v>
       </c>
       <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
         <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -786,63 +1193,84 @@
         <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" t="s">
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N5" t="s">
-        <v>23</v>
-      </c>
       <c r="O5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="3">
+        <v>66.666666599999999</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T5" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" t="s">
-        <v>24</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S5" s="2" t="s">
+      <c r="U5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="X5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U5" t="s">
-        <v>51</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="Y5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>20</v>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B6">
         <v>28.5714285</v>
       </c>
       <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
         <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -851,61 +1279,84 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
         <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N6" t="s">
-        <v>24</v>
-      </c>
       <c r="O6" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T6" t="s">
         <v>15</v>
       </c>
-      <c r="Q6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R6" s="2"/>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
+        <v>23</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="X6" t="s">
         <v>13</v>
       </c>
-      <c r="T6" t="s">
-        <v>24</v>
-      </c>
-      <c r="U6" t="s">
-        <v>51</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="Y6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>20</v>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B7">
         <v>14.285714199999999</v>
       </c>
       <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
         <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -914,61 +1365,84 @@
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N7" t="s">
-        <v>24</v>
-      </c>
       <c r="O7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="T7" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" t="s">
-        <v>24</v>
-      </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2" t="s">
+      <c r="U7" t="s">
+        <v>23</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="X7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T7" t="s">
-        <v>24</v>
-      </c>
-      <c r="U7" t="s">
-        <v>51</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="Y7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>20</v>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B8">
         <v>28.5714285</v>
       </c>
       <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -977,63 +1451,84 @@
         <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L8" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N8" t="s">
-        <v>23</v>
-      </c>
       <c r="O8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="3">
+        <v>66.666666599999999</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="T8" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" t="s">
-        <v>24</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
+        <v>23</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="X8" t="s">
         <v>13</v>
       </c>
-      <c r="T8" t="s">
-        <v>24</v>
-      </c>
-      <c r="U8" t="s">
-        <v>51</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="Y8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>20</v>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B9">
         <v>28.5714285</v>
       </c>
       <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
         <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -1042,63 +1537,84 @@
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" t="s">
         <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
         <v>18</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" t="s">
         <v>15</v>
       </c>
-      <c r="N9" t="s">
-        <v>24</v>
-      </c>
       <c r="O9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="T9" t="s">
         <v>14</v>
       </c>
-      <c r="Q9" t="s">
-        <v>24</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S9" s="2" t="s">
+      <c r="U9" t="s">
+        <v>23</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T9" t="s">
-        <v>24</v>
-      </c>
-      <c r="U9" t="s">
-        <v>51</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="Y9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>20</v>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B10">
         <v>28.5714285</v>
       </c>
       <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
         <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -1107,63 +1623,84 @@
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" t="s">
         <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L10" t="s">
         <v>18</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" t="s">
         <v>15</v>
       </c>
-      <c r="N10" t="s">
-        <v>24</v>
-      </c>
       <c r="O10" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="T10" t="s">
         <v>14</v>
       </c>
-      <c r="Q10" t="s">
-        <v>24</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S10" s="2" t="s">
+      <c r="U10" t="s">
+        <v>23</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="X10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T10" t="s">
-        <v>24</v>
-      </c>
-      <c r="U10" t="s">
-        <v>51</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="Y10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>20</v>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B11">
         <v>28.5714285</v>
       </c>
       <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
         <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -1172,53 +1709,75 @@
         <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" t="s">
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N11" t="s">
-        <v>24</v>
-      </c>
       <c r="O11" t="s">
-        <v>46</v>
-      </c>
-      <c r="P11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="3">
+        <v>66.666666599999999</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" t="s">
+        <v>45</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="T11" t="s">
         <v>11</v>
       </c>
-      <c r="Q11" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S11" s="2" t="s">
+      <c r="U11" t="s">
+        <v>22</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="X11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="T11" t="s">
-        <v>24</v>
-      </c>
-      <c r="U11" t="s">
-        <v>51</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="Y11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB11" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
